--- a/mini48-stm32/export/BOM.xlsx
+++ b/mini48-stm32/export/BOM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="105">
   <si>
     <t xml:space="preserve">    C1</t>
   </si>
@@ -28,33 +28,18 @@
     <t>C123621</t>
   </si>
   <si>
-    <t>0805B472K500CT</t>
-  </si>
-  <si>
-    <t>&gt;  C2, C3</t>
-  </si>
-  <si>
     <t>18pF</t>
   </si>
   <si>
     <t>C113825</t>
   </si>
   <si>
-    <t>CC0805JRNPO9BN180</t>
-  </si>
-  <si>
-    <t>&gt;  C4, C5</t>
-  </si>
-  <si>
     <t>12pF</t>
   </si>
   <si>
     <t>C0805</t>
   </si>
   <si>
-    <t>CC0805JRNPO9BN120</t>
-  </si>
-  <si>
     <t xml:space="preserve">    C6</t>
   </si>
   <si>
@@ -64,21 +49,12 @@
     <t>C111492</t>
   </si>
   <si>
-    <t>CC0805JRX7R9BB104</t>
-  </si>
-  <si>
-    <t>&gt;  C7, C10, C11</t>
-  </si>
-  <si>
     <t>1uF</t>
   </si>
   <si>
     <t>C106838</t>
   </si>
   <si>
-    <t>CC0805ZKY5V9BB105</t>
-  </si>
-  <si>
     <t xml:space="preserve">    C8</t>
   </si>
   <si>
@@ -91,12 +67,6 @@
     <t>C124129</t>
   </si>
   <si>
-    <t>GRM21BR61A476ME15L</t>
-  </si>
-  <si>
-    <t>&gt;  C9, C201</t>
-  </si>
-  <si>
     <t>0.1uF</t>
   </si>
   <si>
@@ -109,9 +79,6 @@
     <t>C117956</t>
   </si>
   <si>
-    <t>GRM21BR71A106KA73L</t>
-  </si>
-  <si>
     <t xml:space="preserve">    C202</t>
   </si>
   <si>
@@ -130,12 +97,6 @@
     <t>C693904</t>
   </si>
   <si>
-    <t>MHS171UGCT</t>
-  </si>
-  <si>
-    <t>&gt;  D2, D3</t>
-  </si>
-  <si>
     <t>DIODESCH</t>
   </si>
   <si>
@@ -145,9 +106,6 @@
     <t>C82288</t>
   </si>
   <si>
-    <t>PMEG2010ER,115</t>
-  </si>
-  <si>
     <t xml:space="preserve">    D4</t>
   </si>
   <si>
@@ -157,9 +115,6 @@
     <t>C99870</t>
   </si>
   <si>
-    <t>17-21/BHC-AP1Q2/3T</t>
-  </si>
-  <si>
     <t xml:space="preserve">    J1</t>
   </si>
   <si>
@@ -172,12 +127,6 @@
     <t>C2681563</t>
   </si>
   <si>
-    <t>MINI 5PTP</t>
-  </si>
-  <si>
-    <t>&gt;  J2, J3</t>
-  </si>
-  <si>
     <t>Conn_01x20</t>
   </si>
   <si>
@@ -226,42 +175,24 @@
     <t>C230655</t>
   </si>
   <si>
-    <t>ERJ6GEYJ105V</t>
-  </si>
-  <si>
-    <t>&gt;  R6, R201</t>
-  </si>
-  <si>
     <t>10k</t>
   </si>
   <si>
     <t>C212284</t>
   </si>
   <si>
-    <t>RMS10FT1002</t>
-  </si>
-  <si>
-    <t>&gt;  R1, R3, R7</t>
-  </si>
-  <si>
     <t>1k</t>
   </si>
   <si>
     <t>C218388</t>
   </si>
   <si>
-    <t>ARG05FTC1001</t>
-  </si>
-  <si>
     <t xml:space="preserve">    R202</t>
   </si>
   <si>
     <t>C149652</t>
   </si>
   <si>
-    <t>CRH0805J120RP05Z</t>
-  </si>
-  <si>
     <t xml:space="preserve">    U1</t>
   </si>
   <si>
@@ -274,24 +205,15 @@
     <t>C8734</t>
   </si>
   <si>
-    <t>STM32F103C8T6</t>
-  </si>
-  <si>
     <t xml:space="preserve">    U2</t>
   </si>
   <si>
     <t>NUF2101MT1G</t>
   </si>
   <si>
-    <t>SOT-457</t>
-  </si>
-  <si>
     <t>C2827654</t>
   </si>
   <si>
-    <t>USBLC6-2SC6</t>
-  </si>
-  <si>
     <t xml:space="preserve">    U3</t>
   </si>
   <si>
@@ -304,9 +226,6 @@
     <t>C140265</t>
   </si>
   <si>
-    <t>LM2937IMP-3.3/NOPB</t>
-  </si>
-  <si>
     <t xml:space="preserve">    U201</t>
   </si>
   <si>
@@ -319,68 +238,116 @@
     <t>C12084</t>
   </si>
   <si>
-    <t>SN65HVD230DR</t>
-  </si>
-  <si>
     <t xml:space="preserve">    X1</t>
   </si>
   <si>
     <t>8MHz</t>
   </si>
   <si>
-    <t>HC-49V</t>
-  </si>
-  <si>
-    <t>C111806</t>
-  </si>
-  <si>
-    <t>E49A8E00000FE10CO</t>
-  </si>
-  <si>
     <t xml:space="preserve">    X2</t>
   </si>
   <si>
     <t>32.768KHz</t>
   </si>
   <si>
-    <t>mini48-stm32:SMD2012</t>
-  </si>
-  <si>
-    <t>C280831</t>
-  </si>
-  <si>
-    <t>NX2012SA-32.768KHz-EXS00A-MU00311</t>
-  </si>
-  <si>
-    <t>Part</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Package</t>
-  </si>
-  <si>
-    <t>JLC Part No</t>
-  </si>
-  <si>
-    <t>MPN</t>
-  </si>
-  <si>
-    <t>Qty</t>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Designator</t>
+  </si>
+  <si>
+    <t>Footprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    C5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    C7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    C9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    C10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    C11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    C201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    D2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    D3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    J2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    J3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    R1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    R3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    R6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    R7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    R201</t>
+  </si>
+  <si>
+    <t>JLCPCB Part #</t>
+  </si>
+  <si>
+    <t>Package_TO_SOT_SMD:SOT-23-6</t>
+  </si>
+  <si>
+    <t>C515343</t>
+  </si>
+  <si>
+    <t>Crystal:Crystal_SMD_HC49-SD</t>
+  </si>
+  <si>
+    <t>C106809</t>
+  </si>
+  <si>
+    <t>mini48-stm32:SMD2012-2P</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFAFABAB"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -391,7 +358,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -399,12 +366,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -709,45 +694,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="44.5546875" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
-    <col min="5" max="5" width="31.88671875" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -755,522 +733,513 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
       </c>
       <c r="D8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
       </c>
       <c r="D10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
         <v>3</v>
       </c>
-      <c r="E10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
         <v>34</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
         <v>35</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D20" t="s">
         <v>36</v>
       </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
         <v>37</v>
       </c>
-      <c r="E11" t="s">
+      <c r="B21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" t="s">
         <v>38</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="D21" t="s">
         <v>39</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
         <v>40</v>
       </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C23" t="s">
         <v>42</v>
       </c>
-      <c r="E12" t="s">
+      <c r="D23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" t="s">
         <v>43</v>
       </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C24" t="s">
         <v>45</v>
       </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
         <v>46</v>
       </c>
-      <c r="E13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="C25" t="s">
         <v>48</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
         <v>49</v>
       </c>
-      <c r="C14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C27" t="s">
         <v>51</v>
       </c>
-      <c r="E14" t="s">
+      <c r="D27" t="s">
         <v>52</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
         <v>53</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" t="s">
         <v>54</v>
       </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
         <v>55</v>
       </c>
-      <c r="D15" t="s">
+      <c r="B30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" t="s">
         <v>56</v>
       </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>120</v>
+      </c>
+      <c r="B32" t="s">
         <v>57</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" t="s">
         <v>58</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" t="s">
         <v>59</v>
       </c>
-      <c r="D16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C33" t="s">
         <v>61</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D33" t="s">
         <v>62</v>
       </c>
-      <c r="D17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" t="s">
         <v>63</v>
       </c>
-      <c r="B18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="C34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" t="s">
         <v>65</v>
       </c>
-      <c r="D18" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" t="s">
         <v>66</v>
       </c>
-      <c r="B19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="C35" t="s">
         <v>68</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D35" t="s">
         <v>69</v>
       </c>
-      <c r="E19" t="s">
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" t="s">
         <v>70</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C36" t="s">
         <v>72</v>
       </c>
-      <c r="C20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="D36" t="s">
         <v>73</v>
       </c>
-      <c r="E20" t="s">
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" t="s">
         <v>74</v>
       </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C37" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
         <v>76</v>
       </c>
-      <c r="C21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22">
-        <v>120</v>
-      </c>
-      <c r="C22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" t="s">
-        <v>85</v>
-      </c>
-      <c r="E23" t="s">
-        <v>86</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>87</v>
-      </c>
-      <c r="B24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" t="s">
-        <v>90</v>
-      </c>
-      <c r="E24" t="s">
-        <v>91</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" t="s">
-        <v>95</v>
-      </c>
-      <c r="E25" t="s">
-        <v>96</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>97</v>
-      </c>
-      <c r="B26" t="s">
-        <v>98</v>
-      </c>
-      <c r="C26" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26" t="s">
-        <v>100</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="C38" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" t="s">
         <v>101</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>102</v>
-      </c>
-      <c r="B27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" t="s">
-        <v>105</v>
-      </c>
-      <c r="E27" t="s">
-        <v>106</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>107</v>
-      </c>
-      <c r="B28" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28" t="s">
-        <v>109</v>
-      </c>
-      <c r="D28" t="s">
-        <v>110</v>
-      </c>
-      <c r="E28" t="s">
-        <v>111</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>